--- a/CoffeeShop Requirement Sheet.xlsx
+++ b/CoffeeShop Requirement Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thnrg\Documents\Nhap Mon KT Phan Mem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D797F8-1C28-407A-8378-FA767F381A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C94D0-A5DC-402B-AF71-35DE705E0AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{706AC6AB-5417-4084-96B1-2E468935C4BA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Requirement Management Sheet</t>
   </si>
@@ -271,13 +271,22 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>15/1/2024</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Minh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +296,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,16 +328,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -339,8 +360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D86EF46F-84AF-462F-91DB-F947C4401559}" name="Table1" displayName="Table1" ref="A8:N31" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A8:N31" xr:uid="{D86EF46F-84AF-462F-91DB-F947C4401559}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D86EF46F-84AF-462F-91DB-F947C4401559}" name="Table1" displayName="Table1" ref="A8:N32" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A8:N32" xr:uid="{D86EF46F-84AF-462F-91DB-F947C4401559}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{A0138038-1263-49F9-A4BB-9A9D424F0B24}" name="Req ID"/>
     <tableColumn id="2" xr3:uid="{72957B57-DD33-4CEF-8438-1753BCE7B6DE}" name="Requirement Title"/>
@@ -355,7 +376,7 @@
     <tableColumn id="11" xr3:uid="{E48B99DE-385B-4565-AA61-1348504C3A0E}" name="PIC"/>
     <tableColumn id="12" xr3:uid="{DAF64A16-0485-475C-A0EC-78B661D7813C}" name="Coding Effort"/>
     <tableColumn id="13" xr3:uid="{1D4EB78D-16FE-436C-A062-473DDCFDD5E9}" name="Status"/>
-    <tableColumn id="14" xr3:uid="{0C646A08-B9AF-4A45-8EC0-4D124B045374}" name="Change status date"/>
+    <tableColumn id="14" xr3:uid="{0C646A08-B9AF-4A45-8EC0-4D124B045374}" name="Change status date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,14 +681,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A802767-97FB-4CBB-9608-85449D4F433B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="55.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
@@ -676,8 +697,8 @@
     <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -690,11 +711,17 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -705,6 +732,10 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT(COUNTIF(Table1[Status], "Done") / COUNTA(Table1[Status]) * 100, "%")</f>
+        <v>0%</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -763,6 +794,12 @@
       <c r="E9" t="s">
         <v>78</v>
       </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -777,6 +814,12 @@
       <c r="E10" t="s">
         <v>78</v>
       </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -791,6 +834,12 @@
       <c r="E11" t="s">
         <v>78</v>
       </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -805,6 +854,12 @@
       <c r="E12" t="s">
         <v>78</v>
       </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -819,6 +874,12 @@
       <c r="E13" t="s">
         <v>78</v>
       </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -833,6 +894,12 @@
       <c r="E14" t="s">
         <v>78</v>
       </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -847,6 +914,12 @@
       <c r="E15" t="s">
         <v>78</v>
       </c>
+      <c r="M15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -861,8 +934,14 @@
       <c r="E16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -875,8 +954,14 @@
       <c r="E17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -889,8 +974,14 @@
       <c r="E18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -903,8 +994,14 @@
       <c r="E19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -917,8 +1014,14 @@
       <c r="E20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -931,8 +1034,14 @@
       <c r="E21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -945,8 +1054,14 @@
       <c r="E22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -959,8 +1074,14 @@
       <c r="E23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -973,8 +1094,14 @@
       <c r="E24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -987,8 +1114,14 @@
       <c r="E25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -1001,8 +1134,14 @@
       <c r="E26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1015,8 +1154,14 @@
       <c r="E27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1029,8 +1174,14 @@
       <c r="E28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -1043,8 +1194,14 @@
       <c r="E29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -1057,8 +1214,14 @@
       <c r="E30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1071,8 +1234,14 @@
       <c r="E31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1084,13 +1253,20 @@
       </c>
       <c r="E32" t="s">
         <v>78</v>
+      </c>
+      <c r="M32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>